--- a/qurriculum/Results/Summary.xlsx
+++ b/qurriculum/Results/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1. GitHub\qurriculum_learning\qurriculum\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625DBE39-193B-4A81-BADF-DCF9999C2A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9707EE4B-F9CD-4405-A569-1C9C46FC0C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="420" windowWidth="38280" windowHeight="14265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sum up" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="92">
   <si>
     <t>num_runs</t>
   </si>
@@ -303,6 +303,18 @@
   <si>
     <t>from now on changes made: change scheduling at n steps, every 1/n of iterations we change ratio. Where n is the length of cv_ratios</t>
   </si>
+  <si>
+    <t>2024-01-20 10-14-53</t>
+  </si>
+  <si>
+    <t>2024-01-20 10-15-48</t>
+  </si>
+  <si>
+    <t>2024-01-20 11-23-59</t>
+  </si>
+  <si>
+    <t>2024-01-20 11-50-23</t>
+  </si>
 </sst>
 </file>
 
@@ -431,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -464,10 +476,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D965C72C-02F5-423A-8A05-F3CD6EF68BDE}">
   <dimension ref="A1:Q516"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
@@ -835,7 +846,7 @@
       <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="5">
@@ -844,34 +855,34 @@
       <c r="D2" s="5">
         <v>82.9</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2">
         <v>2000</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2">
         <v>100</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2">
         <v>1000</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="15" t="b">
+      <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="M2" s="15" t="b">
+      <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2">
         <v>10</v>
       </c>
       <c r="O2" t="s">
@@ -988,7 +999,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="5">
@@ -997,35 +1008,35 @@
       <c r="D5" s="5">
         <v>89.15</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5">
         <v>1000</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5">
         <v>1000</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="15" t="str">
+      <c r="J5" t="str">
         <f>INDEX(Data!W:W,MATCH($O5,Data!$AK:$AK,0))</f>
         <v>cross_entropy</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="15" t="b">
+      <c r="L5" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="15" t="b">
+      <c r="M5" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5">
         <v>10</v>
       </c>
       <c r="O5" t="s">
@@ -1142,7 +1153,7 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="6">
@@ -1151,35 +1162,35 @@
       <c r="D8" s="6">
         <v>83.87</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8">
         <v>8</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8">
         <v>1000</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8">
         <v>50</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8">
         <v>1000</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="15" t="str">
+      <c r="J8" t="str">
         <f>INDEX(Data!W:W,MATCH($O8,Data!$AK:$AK,0))</f>
         <v>cross_entropy</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="15" t="b">
+      <c r="L8" t="b">
         <v>1</v>
       </c>
-      <c r="M8" s="15" t="b">
+      <c r="M8" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8">
         <v>10</v>
       </c>
       <c r="O8" t="s">
@@ -1296,7 +1307,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="5">
@@ -1450,7 +1461,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="8">
@@ -30320,6 +30331,90 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C72:C76">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77:C81">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C86">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87:C91">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92:C96">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97:C101">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102:C106">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4">
     <cfRule type="colorScale" priority="97">
       <colorScale>
@@ -30512,18 +30607,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C76">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D72:D76">
     <cfRule type="colorScale" priority="13">
       <colorScale>
@@ -30548,32 +30631,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C77:C81">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D82:D86">
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C86">
-    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30596,18 +30655,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C87:C91">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D92:D96">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -30620,44 +30667,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92:C96">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D97:D101">
     <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97:C101">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102:C106">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30688,11 +30699,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM668"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q53" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="J95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM64" sqref="AM64"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37268,31 +37279,75 @@
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
-      <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
-      <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
-      <c r="Z104" s="2"/>
-      <c r="AA104" s="2"/>
-      <c r="AB104" s="2"/>
-      <c r="AC104" s="2"/>
-      <c r="AD104" s="2"/>
-      <c r="AE104" s="2"/>
-      <c r="AF104" s="2"/>
-      <c r="AG104" s="2"/>
-      <c r="AH104" s="2"/>
-      <c r="AI104" s="2"/>
-      <c r="AJ104" s="2"/>
-      <c r="AK104" s="2"/>
+      <c r="P104">
+        <v>500</v>
+      </c>
+      <c r="Q104">
+        <v>10</v>
+      </c>
+      <c r="R104" t="s">
+        <v>50</v>
+      </c>
+      <c r="S104" t="b">
+        <v>1</v>
+      </c>
+      <c r="T104">
+        <v>8</v>
+      </c>
+      <c r="U104" t="b">
+        <v>0</v>
+      </c>
+      <c r="V104" t="s">
+        <v>33</v>
+      </c>
+      <c r="W104" t="s">
+        <v>70</v>
+      </c>
+      <c r="X104" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y104">
+        <v>48</v>
+      </c>
+      <c r="Z104">
+        <v>48</v>
+      </c>
+      <c r="AA104">
+        <v>1000</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC104" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD104" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE104" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AI104">
+        <v>6.28318530717958</v>
+      </c>
+      <c r="AJ104">
+        <v>0.01</v>
+      </c>
+      <c r="AK104" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="AL104" s="2" t="str">
         <f t="shared" ref="AL104" si="8">_xlfn.CONCAT(A104,AK104)</f>
-        <v>NCL</v>
+        <v>NCL2024-01-20 10-14-53</v>
       </c>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.25">
@@ -37301,7 +37356,7 @@
       </c>
       <c r="AL105" t="str">
         <f>_xlfn.CONCAT(A105,AK104)</f>
-        <v>CL</v>
+        <v>CL2024-01-20 10-14-53</v>
       </c>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.25">
@@ -37310,7 +37365,7 @@
       </c>
       <c r="AL106" t="str">
         <f>_xlfn.CONCAT(A106,AK104)</f>
-        <v>ACL</v>
+        <v>ACL2024-01-20 10-14-53</v>
       </c>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.25">
@@ -37319,7 +37374,7 @@
       </c>
       <c r="AL107" t="str">
         <f>_xlfn.CONCAT(A107,AK104)</f>
-        <v>SPCL</v>
+        <v>SPCL2024-01-20 10-14-53</v>
       </c>
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.25">
@@ -37364,7 +37419,7 @@
       <c r="AK108" s="1"/>
       <c r="AL108" s="1" t="str">
         <f>_xlfn.CONCAT(A108,AK104)</f>
-        <v>SPACL</v>
+        <v>SPACL2024-01-20 10-14-53</v>
       </c>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.25">
@@ -37385,31 +37440,75 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
-      <c r="S109" s="2"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
-      <c r="W109" s="2"/>
-      <c r="X109" s="2"/>
-      <c r="Y109" s="2"/>
-      <c r="Z109" s="2"/>
-      <c r="AA109" s="2"/>
-      <c r="AB109" s="2"/>
-      <c r="AC109" s="2"/>
-      <c r="AD109" s="2"/>
-      <c r="AE109" s="2"/>
-      <c r="AF109" s="2"/>
-      <c r="AG109" s="2"/>
-      <c r="AH109" s="2"/>
-      <c r="AI109" s="2"/>
-      <c r="AJ109" s="2"/>
-      <c r="AK109" s="2"/>
+      <c r="P109">
+        <v>500</v>
+      </c>
+      <c r="Q109">
+        <v>10</v>
+      </c>
+      <c r="R109" t="s">
+        <v>50</v>
+      </c>
+      <c r="S109" t="b">
+        <v>1</v>
+      </c>
+      <c r="T109">
+        <v>8</v>
+      </c>
+      <c r="U109" t="b">
+        <v>0</v>
+      </c>
+      <c r="V109" t="s">
+        <v>33</v>
+      </c>
+      <c r="W109" t="s">
+        <v>70</v>
+      </c>
+      <c r="X109" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y109">
+        <v>48</v>
+      </c>
+      <c r="Z109">
+        <v>48</v>
+      </c>
+      <c r="AA109">
+        <v>1000</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC109" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD109" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE109" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG109">
+        <v>0</v>
+      </c>
+      <c r="AH109">
+        <v>0</v>
+      </c>
+      <c r="AI109">
+        <v>6.28318530717958</v>
+      </c>
+      <c r="AJ109">
+        <v>0.01</v>
+      </c>
+      <c r="AK109" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="AL109" s="2" t="str">
         <f t="shared" ref="AL109" si="9">_xlfn.CONCAT(A109,AK109)</f>
-        <v>NCL</v>
+        <v>NCL2024-01-20 10-15-48</v>
       </c>
     </row>
     <row r="110" spans="1:38" x14ac:dyDescent="0.25">
@@ -37418,7 +37517,7 @@
       </c>
       <c r="AL110" t="str">
         <f>_xlfn.CONCAT(A110,AK109)</f>
-        <v>CL</v>
+        <v>CL2024-01-20 10-15-48</v>
       </c>
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.25">
@@ -37427,7 +37526,7 @@
       </c>
       <c r="AL111" t="str">
         <f>_xlfn.CONCAT(A111,AK109)</f>
-        <v>ACL</v>
+        <v>ACL2024-01-20 10-15-48</v>
       </c>
     </row>
     <row r="112" spans="1:38" x14ac:dyDescent="0.25">
@@ -37436,7 +37535,7 @@
       </c>
       <c r="AL112" t="str">
         <f>_xlfn.CONCAT(A112,AK109)</f>
-        <v>SPCL</v>
+        <v>SPCL2024-01-20 10-15-48</v>
       </c>
     </row>
     <row r="113" spans="1:38" x14ac:dyDescent="0.25">
@@ -37481,7 +37580,7 @@
       <c r="AK113" s="1"/>
       <c r="AL113" s="1" t="str">
         <f>_xlfn.CONCAT(A113,AK109)</f>
-        <v>SPACL</v>
+        <v>SPACL2024-01-20 10-15-48</v>
       </c>
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.25">
@@ -37502,31 +37601,75 @@
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
-      <c r="T114" s="2"/>
-      <c r="U114" s="2"/>
-      <c r="V114" s="2"/>
-      <c r="W114" s="2"/>
-      <c r="X114" s="2"/>
-      <c r="Y114" s="2"/>
-      <c r="Z114" s="2"/>
-      <c r="AA114" s="2"/>
-      <c r="AB114" s="2"/>
-      <c r="AC114" s="2"/>
-      <c r="AD114" s="2"/>
-      <c r="AE114" s="2"/>
-      <c r="AF114" s="2"/>
-      <c r="AG114" s="2"/>
-      <c r="AH114" s="2"/>
-      <c r="AI114" s="2"/>
-      <c r="AJ114" s="2"/>
-      <c r="AK114" s="2"/>
+      <c r="P114">
+        <v>500</v>
+      </c>
+      <c r="Q114">
+        <v>10</v>
+      </c>
+      <c r="R114" t="s">
+        <v>50</v>
+      </c>
+      <c r="S114" t="b">
+        <v>1</v>
+      </c>
+      <c r="T114">
+        <v>8</v>
+      </c>
+      <c r="U114" t="b">
+        <v>0</v>
+      </c>
+      <c r="V114" t="s">
+        <v>33</v>
+      </c>
+      <c r="W114" t="s">
+        <v>70</v>
+      </c>
+      <c r="X114" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y114">
+        <v>48</v>
+      </c>
+      <c r="Z114">
+        <v>48</v>
+      </c>
+      <c r="AA114">
+        <v>1000</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE114" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>0</v>
+      </c>
+      <c r="AH114">
+        <v>0</v>
+      </c>
+      <c r="AI114">
+        <v>6.28318530717958</v>
+      </c>
+      <c r="AJ114">
+        <v>0.01</v>
+      </c>
+      <c r="AK114" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="AL114" s="2" t="str">
         <f t="shared" ref="AL114" si="10">_xlfn.CONCAT(A114,AK114)</f>
-        <v>NCL</v>
+        <v>NCL2024-01-20 11-23-59</v>
       </c>
     </row>
     <row r="115" spans="1:38" x14ac:dyDescent="0.25">
@@ -37535,7 +37678,7 @@
       </c>
       <c r="AL115" t="str">
         <f>_xlfn.CONCAT(A115,AK114)</f>
-        <v>CL</v>
+        <v>CL2024-01-20 11-23-59</v>
       </c>
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.25">
@@ -37544,7 +37687,7 @@
       </c>
       <c r="AL116" t="str">
         <f>_xlfn.CONCAT(A116,AK114)</f>
-        <v>ACL</v>
+        <v>ACL2024-01-20 11-23-59</v>
       </c>
     </row>
     <row r="117" spans="1:38" x14ac:dyDescent="0.25">
@@ -37553,7 +37696,7 @@
       </c>
       <c r="AL117" t="str">
         <f>_xlfn.CONCAT(A117,AK114)</f>
-        <v>SPCL</v>
+        <v>SPCL2024-01-20 11-23-59</v>
       </c>
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.25">
@@ -37598,7 +37741,7 @@
       <c r="AK118" s="1"/>
       <c r="AL118" s="1" t="str">
         <f>_xlfn.CONCAT(A118,AK114)</f>
-        <v>SPACL</v>
+        <v>SPACL2024-01-20 11-23-59</v>
       </c>
     </row>
     <row r="119" spans="1:38" x14ac:dyDescent="0.25">
@@ -37619,31 +37762,75 @@
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="2"/>
-      <c r="S119" s="2"/>
-      <c r="T119" s="2"/>
-      <c r="U119" s="2"/>
-      <c r="V119" s="2"/>
-      <c r="W119" s="2"/>
-      <c r="X119" s="2"/>
-      <c r="Y119" s="2"/>
-      <c r="Z119" s="2"/>
-      <c r="AA119" s="2"/>
-      <c r="AB119" s="2"/>
-      <c r="AC119" s="2"/>
-      <c r="AD119" s="2"/>
-      <c r="AE119" s="2"/>
-      <c r="AF119" s="2"/>
-      <c r="AG119" s="2"/>
-      <c r="AH119" s="2"/>
-      <c r="AI119" s="2"/>
-      <c r="AJ119" s="2"/>
-      <c r="AK119" s="2"/>
+      <c r="P119">
+        <v>500</v>
+      </c>
+      <c r="Q119">
+        <v>10</v>
+      </c>
+      <c r="R119" t="s">
+        <v>50</v>
+      </c>
+      <c r="S119" t="b">
+        <v>1</v>
+      </c>
+      <c r="T119">
+        <v>8</v>
+      </c>
+      <c r="U119" t="b">
+        <v>0</v>
+      </c>
+      <c r="V119" t="s">
+        <v>33</v>
+      </c>
+      <c r="W119" t="s">
+        <v>70</v>
+      </c>
+      <c r="X119" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y119">
+        <v>48</v>
+      </c>
+      <c r="Z119">
+        <v>48</v>
+      </c>
+      <c r="AA119">
+        <v>1000</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE119" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <v>0</v>
+      </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AI119">
+        <v>6.28318530717958</v>
+      </c>
+      <c r="AJ119">
+        <v>0.01</v>
+      </c>
+      <c r="AK119" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="AL119" s="2" t="str">
         <f t="shared" ref="AL119" si="11">_xlfn.CONCAT(A119,AK119)</f>
-        <v>NCL</v>
+        <v>NCL2024-01-20 11-50-23</v>
       </c>
     </row>
     <row r="120" spans="1:38" x14ac:dyDescent="0.25">
@@ -37652,7 +37839,7 @@
       </c>
       <c r="AL120" t="str">
         <f>_xlfn.CONCAT(A120,AK119)</f>
-        <v>CL</v>
+        <v>CL2024-01-20 11-50-23</v>
       </c>
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.25">
@@ -37661,7 +37848,7 @@
       </c>
       <c r="AL121" t="str">
         <f>_xlfn.CONCAT(A121,AK119)</f>
-        <v>ACL</v>
+        <v>ACL2024-01-20 11-50-23</v>
       </c>
     </row>
     <row r="122" spans="1:38" x14ac:dyDescent="0.25">
@@ -37670,7 +37857,7 @@
       </c>
       <c r="AL122" t="str">
         <f>_xlfn.CONCAT(A122,AK119)</f>
-        <v>SPCL</v>
+        <v>SPCL2024-01-20 11-50-23</v>
       </c>
     </row>
     <row r="123" spans="1:38" x14ac:dyDescent="0.25">
@@ -37715,7 +37902,7 @@
       <c r="AK123" s="1"/>
       <c r="AL123" s="1" t="str">
         <f>_xlfn.CONCAT(A123,AK119)</f>
-        <v>SPACL</v>
+        <v>SPACL2024-01-20 11-50-23</v>
       </c>
     </row>
     <row r="124" spans="1:38" x14ac:dyDescent="0.25">
@@ -50700,6 +50887,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G64:G103">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H2:H4">
     <cfRule type="colorScale" priority="238">
       <colorScale>
@@ -50893,7 +51092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44:H48">
-    <cfRule type="colorScale" priority="73">
+    <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50903,7 +51102,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="74">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50950,6 +51149,102 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H63">
     <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64:H68">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69:H73">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74:H78">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79:H83">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84:H88">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89:H93">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94:H98">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99:H103">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51165,7 +51460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I53">
-    <cfRule type="colorScale" priority="87">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51175,7 +51470,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="88">
+    <cfRule type="colorScale" priority="87">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51200,6 +51495,102 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="I59:I63">
     <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64:I68">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69:I73">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74:I78">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79:I83">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84:I88">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I89:I93">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I94:I98">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I99:I103">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51415,7 +51806,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:J53">
-    <cfRule type="colorScale" priority="85">
+    <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51425,7 +51816,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="86">
+    <cfRule type="colorScale" priority="85">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51450,6 +51841,102 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="J59:J63">
     <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64:J68">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69:J73">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74:J78">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79:J83">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84:J88">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89:J93">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J94:J98">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J99:J103">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51710,6 +52197,102 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K64:K68">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69:K73">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K74:K78">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K79:K83">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84:K88">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K89:K93">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K94:K98">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K99:K103">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L2:L4">
     <cfRule type="colorScale" priority="234">
       <colorScale>
@@ -51915,7 +52498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49:L53">
-    <cfRule type="colorScale" priority="81">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51925,7 +52508,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="82">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51950,6 +52533,102 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:L63">
     <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L64:L68">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:L73">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74:L78">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L79:L83">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L84:L88">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L89:L93">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L94:L98">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L99:L103">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52165,7 +52844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49:M53">
-    <cfRule type="colorScale" priority="79">
+    <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52175,7 +52854,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="80">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52200,6 +52879,102 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="M59:M63">
     <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M64:M68">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M69:M73">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M74:M78">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M79:M83">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M84:M88">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M89:M93">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M94:M98">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M99:M103">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52460,92 +53235,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64:G103">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64:H68">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N64:N68">
     <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M64:M68">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L64:L68">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64:K68">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64:J68">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64:I68">
-    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52568,152 +53259,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M69:M73">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L69:L73">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69:K73">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69:J73">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69:I73">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H73">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N74:N78">
     <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M74:M78">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L74:L78">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K74:K78">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74:J78">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I78">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74:H78">
-    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52736,152 +53283,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M79:M83">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L79:L83">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K79:K83">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79:I83">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79:J83">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79:H83">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N84:N88">
     <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M84:M88">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L84:L88">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K84:K88">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84:J88">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84:I88">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84:H88">
-    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52904,152 +53307,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M89:M93">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L89:L93">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K89:K93">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J89:J93">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I89:I93">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89:H93">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N94:N98">
     <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M94:M98">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L94:L98">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K94:K98">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J94:J98">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I94:I98">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H94:H98">
-    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -53072,78 +53331,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M99:M103">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L99:L103">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K99:K103">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J99:J103">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I99:I103">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H99:H103">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/qurriculum/Results/Summary.xlsx
+++ b/qurriculum/Results/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1. GitHub\qurriculum_learning\qurriculum\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9707EE4B-F9CD-4405-A569-1C9C46FC0C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035C2EEC-7EB9-48BE-8AD6-B558B0219F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="420" windowWidth="38280" windowHeight="14265" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sum up" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="92">
   <si>
     <t>num_runs</t>
   </si>
@@ -443,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -479,6 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,11 +762,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D965C72C-02F5-423A-8A05-F3CD6EF68BDE}">
   <dimension ref="A1:Q516"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C104" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6942,55 +6943,58 @@
       </c>
       <c r="C107" s="9">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P107,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>95.4166666666666</v>
       </c>
       <c r="D107" s="9">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P107,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="e">
+        <v>86.45</v>
+      </c>
+      <c r="E107" s="2">
         <f>INDEX(Data!T:T,MATCH($O107,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F107" s="2" t="e">
+        <v>8</v>
+      </c>
+      <c r="F107" s="2">
         <f>INDEX(Data!P:P,MATCH($O107,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G107" s="2" t="e">
+        <v>500</v>
+      </c>
+      <c r="G107" s="2">
         <f>INDEX(Data!Z:Z,MATCH($O107,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H107" s="2" t="e">
+        <v>48</v>
+      </c>
+      <c r="H107" s="2">
         <f>INDEX(Data!AA:AA,MATCH($O107,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I107" s="2" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I107" s="2" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O107,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J107" s="2" t="e">
+        <v>[0.4, 0.3, 0.2, 0.1]</v>
+      </c>
+      <c r="J107" s="2" t="str">
         <f>INDEX(Data!W:W,MATCH($O107,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K107" s="2" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K107" s="2" t="str">
         <f>INDEX(Data!X:X,MATCH($O107,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L107" s="2" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L107" s="2" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O107,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M107" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="M107" s="2" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O107,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N107" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="N107" s="2">
         <f>INDEX(Data!Q:Q,MATCH($O107,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O107" t="s">
+        <v>88</v>
       </c>
       <c r="P107" s="12" t="str">
         <f>_xlfn.CONCAT(B107,O107)</f>
-        <v>NCL</v>
+        <v>NCL2024-01-20 10-14-53</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -7002,55 +7006,58 @@
       </c>
       <c r="C108" s="10">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P108,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>91.6666666666666</v>
       </c>
       <c r="D108" s="10">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P108,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E108" t="e">
+        <v>83.789999999999907</v>
+      </c>
+      <c r="E108">
         <f>INDEX(Data!T:T,MATCH($O108,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F108" t="e">
+        <v>8</v>
+      </c>
+      <c r="F108">
         <f>INDEX(Data!P:P,MATCH($O108,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G108" t="e">
+        <v>500</v>
+      </c>
+      <c r="G108">
         <f>INDEX(Data!Z:Z,MATCH($O108,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H108" t="e">
+        <v>48</v>
+      </c>
+      <c r="H108">
         <f>INDEX(Data!AA:AA,MATCH($O108,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I108" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I108" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O108,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J108" t="e">
+        <v>[0.4, 0.3, 0.2, 0.1]</v>
+      </c>
+      <c r="J108" t="str">
         <f>INDEX(Data!W:W,MATCH($O108,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K108" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K108" t="str">
         <f>INDEX(Data!X:X,MATCH($O108,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L108" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L108" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O108,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M108" t="e">
+        <v>1</v>
+      </c>
+      <c r="M108" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O108,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N108" t="e">
+        <v>1</v>
+      </c>
+      <c r="N108">
         <f>INDEX(Data!Q:Q,MATCH($O108,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O108" t="s">
+        <v>88</v>
       </c>
       <c r="P108" s="12" t="str">
         <f>_xlfn.CONCAT(B108,O107)</f>
-        <v>CL</v>
+        <v>CL2024-01-20 10-14-53</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -7062,55 +7069,58 @@
       </c>
       <c r="C109" s="10">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P109,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>94.7916666666666</v>
       </c>
       <c r="D109" s="10">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P109,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E109" t="e">
+        <v>86.84</v>
+      </c>
+      <c r="E109">
         <f>INDEX(Data!T:T,MATCH($O109,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F109" t="e">
+        <v>8</v>
+      </c>
+      <c r="F109">
         <f>INDEX(Data!P:P,MATCH($O109,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G109" t="e">
+        <v>500</v>
+      </c>
+      <c r="G109">
         <f>INDEX(Data!Z:Z,MATCH($O109,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H109" t="e">
+        <v>48</v>
+      </c>
+      <c r="H109">
         <f>INDEX(Data!AA:AA,MATCH($O109,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I109" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I109" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O109,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J109" t="e">
+        <v>[0.4, 0.3, 0.2, 0.1]</v>
+      </c>
+      <c r="J109" t="str">
         <f>INDEX(Data!W:W,MATCH($O109,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K109" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K109" t="str">
         <f>INDEX(Data!X:X,MATCH($O109,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L109" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L109" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O109,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M109" t="e">
+        <v>1</v>
+      </c>
+      <c r="M109" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O109,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N109" t="e">
+        <v>1</v>
+      </c>
+      <c r="N109">
         <f>INDEX(Data!Q:Q,MATCH($O109,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O109" t="s">
+        <v>88</v>
       </c>
       <c r="P109" s="12" t="str">
         <f>_xlfn.CONCAT(B109,O107)</f>
-        <v>ACL</v>
+        <v>ACL2024-01-20 10-14-53</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -7122,55 +7132,58 @@
       </c>
       <c r="C110" s="10">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P110,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>95.4166666666666</v>
       </c>
       <c r="D110" s="10">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P110,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E110" t="e">
+        <v>86.789999999999907</v>
+      </c>
+      <c r="E110">
         <f>INDEX(Data!T:T,MATCH($O110,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F110" t="e">
+        <v>8</v>
+      </c>
+      <c r="F110">
         <f>INDEX(Data!P:P,MATCH($O110,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G110" t="e">
+        <v>500</v>
+      </c>
+      <c r="G110">
         <f>INDEX(Data!Z:Z,MATCH($O110,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H110" t="e">
+        <v>48</v>
+      </c>
+      <c r="H110">
         <f>INDEX(Data!AA:AA,MATCH($O110,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I110" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I110" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O110,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J110" t="e">
+        <v>[0.4, 0.3, 0.2, 0.1]</v>
+      </c>
+      <c r="J110" t="str">
         <f>INDEX(Data!W:W,MATCH($O110,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K110" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K110" t="str">
         <f>INDEX(Data!X:X,MATCH($O110,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L110" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L110" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O110,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M110" t="e">
+        <v>1</v>
+      </c>
+      <c r="M110" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O110,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N110" t="e">
+        <v>1</v>
+      </c>
+      <c r="N110">
         <f>INDEX(Data!Q:Q,MATCH($O110,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O110" t="s">
+        <v>88</v>
       </c>
       <c r="P110" s="12" t="str">
         <f>_xlfn.CONCAT(B110,O107)</f>
-        <v>SPCL</v>
+        <v>SPCL2024-01-20 10-14-53</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -7182,56 +7195,58 @@
       </c>
       <c r="C111" s="11">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P111,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>93.75</v>
       </c>
       <c r="D111" s="11">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P111,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E111" s="1" t="e">
+        <v>86.11</v>
+      </c>
+      <c r="E111" s="1">
         <f>INDEX(Data!T:T,MATCH($O111,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F111" s="1" t="e">
+        <v>8</v>
+      </c>
+      <c r="F111" s="1">
         <f>INDEX(Data!P:P,MATCH($O111,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G111" s="1" t="e">
+        <v>500</v>
+      </c>
+      <c r="G111" s="1">
         <f>INDEX(Data!Z:Z,MATCH($O111,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H111" s="1" t="e">
+        <v>48</v>
+      </c>
+      <c r="H111" s="1">
         <f>INDEX(Data!AA:AA,MATCH($O111,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I111" s="1" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I111" s="1" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O111,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J111" s="1" t="e">
+        <v>[0.4, 0.3, 0.2, 0.1]</v>
+      </c>
+      <c r="J111" s="1" t="str">
         <f>INDEX(Data!W:W,MATCH($O111,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K111" s="1" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K111" s="1" t="str">
         <f>INDEX(Data!X:X,MATCH($O111,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L111" s="1" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L111" s="1" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O111,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M111" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="M111" s="1" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O111,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N111" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="N111" s="1">
         <f>INDEX(Data!Q:Q,MATCH($O111,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O111" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="P111" s="13" t="str">
         <f>_xlfn.CONCAT(B111,O107)</f>
-        <v>SPACL</v>
+        <v>SPACL2024-01-20 10-14-53</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -7243,55 +7258,58 @@
       </c>
       <c r="C112" s="9">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P112,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>90.4166666666666</v>
       </c>
       <c r="D112" s="9">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P112,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E112" s="2" t="e">
+        <v>86.85</v>
+      </c>
+      <c r="E112" s="2">
         <f>INDEX(Data!T:T,MATCH($O112,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F112" s="2" t="e">
+        <v>8</v>
+      </c>
+      <c r="F112" s="2">
         <f>INDEX(Data!P:P,MATCH($O112,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G112" s="2" t="e">
+        <v>500</v>
+      </c>
+      <c r="G112" s="2">
         <f>INDEX(Data!Z:Z,MATCH($O112,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H112" s="2" t="e">
+        <v>48</v>
+      </c>
+      <c r="H112" s="2">
         <f>INDEX(Data!AA:AA,MATCH($O112,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I112" s="2" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I112" s="2" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O112,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J112" s="2" t="e">
+        <v>[0.1, 0.2, 0.3, 0.4]</v>
+      </c>
+      <c r="J112" s="2" t="str">
         <f>INDEX(Data!W:W,MATCH($O112,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K112" s="2" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K112" s="2" t="str">
         <f>INDEX(Data!X:X,MATCH($O112,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L112" s="2" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L112" s="2" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O112,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M112" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="M112" s="2" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O112,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N112" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="N112" s="2">
         <f>INDEX(Data!Q:Q,MATCH($O112,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O112" t="s">
+        <v>89</v>
       </c>
       <c r="P112" s="12" t="str">
         <f>_xlfn.CONCAT(B112,O112)</f>
-        <v>NCL</v>
+        <v>NCL2024-01-20 10-15-48</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -7303,55 +7321,58 @@
       </c>
       <c r="C113" s="10">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P113,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>89.5833333333333</v>
       </c>
       <c r="D113" s="10">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P113,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E113" t="e">
+        <v>85.34</v>
+      </c>
+      <c r="E113">
         <f>INDEX(Data!T:T,MATCH($O113,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F113" t="e">
+        <v>8</v>
+      </c>
+      <c r="F113">
         <f>INDEX(Data!P:P,MATCH($O113,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G113" t="e">
+        <v>500</v>
+      </c>
+      <c r="G113">
         <f>INDEX(Data!Z:Z,MATCH($O113,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H113" t="e">
+        <v>48</v>
+      </c>
+      <c r="H113">
         <f>INDEX(Data!AA:AA,MATCH($O113,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I113" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I113" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O113,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J113" t="e">
+        <v>[0.1, 0.2, 0.3, 0.4]</v>
+      </c>
+      <c r="J113" t="str">
         <f>INDEX(Data!W:W,MATCH($O113,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K113" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K113" t="str">
         <f>INDEX(Data!X:X,MATCH($O113,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L113" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L113" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O113,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M113" t="e">
+        <v>1</v>
+      </c>
+      <c r="M113" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O113,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N113" t="e">
+        <v>1</v>
+      </c>
+      <c r="N113">
         <f>INDEX(Data!Q:Q,MATCH($O113,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O113" t="s">
+        <v>89</v>
       </c>
       <c r="P113" s="12" t="str">
         <f>_xlfn.CONCAT(B113,O112)</f>
-        <v>CL</v>
+        <v>CL2024-01-20 10-15-48</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
@@ -7363,55 +7384,58 @@
       </c>
       <c r="C114" s="10">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P114,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>90.8333333333333</v>
       </c>
       <c r="D114" s="10">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P114,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E114" t="e">
+        <v>87.869999999999905</v>
+      </c>
+      <c r="E114">
         <f>INDEX(Data!T:T,MATCH($O114,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F114" t="e">
+        <v>8</v>
+      </c>
+      <c r="F114">
         <f>INDEX(Data!P:P,MATCH($O114,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G114" t="e">
+        <v>500</v>
+      </c>
+      <c r="G114">
         <f>INDEX(Data!Z:Z,MATCH($O114,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H114" t="e">
+        <v>48</v>
+      </c>
+      <c r="H114">
         <f>INDEX(Data!AA:AA,MATCH($O114,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I114" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I114" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O114,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J114" t="e">
+        <v>[0.1, 0.2, 0.3, 0.4]</v>
+      </c>
+      <c r="J114" t="str">
         <f>INDEX(Data!W:W,MATCH($O114,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K114" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K114" t="str">
         <f>INDEX(Data!X:X,MATCH($O114,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L114" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L114" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O114,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M114" t="e">
+        <v>1</v>
+      </c>
+      <c r="M114" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O114,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N114" t="e">
+        <v>1</v>
+      </c>
+      <c r="N114">
         <f>INDEX(Data!Q:Q,MATCH($O114,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O114" t="s">
+        <v>89</v>
       </c>
       <c r="P114" s="12" t="str">
         <f>_xlfn.CONCAT(B114,O112)</f>
-        <v>ACL</v>
+        <v>ACL2024-01-20 10-15-48</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -7423,55 +7447,58 @@
       </c>
       <c r="C115" s="10">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P115,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>92.2916666666666</v>
       </c>
       <c r="D115" s="10">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P115,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E115" t="e">
+        <v>87.99</v>
+      </c>
+      <c r="E115">
         <f>INDEX(Data!T:T,MATCH($O115,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F115" t="e">
+        <v>8</v>
+      </c>
+      <c r="F115">
         <f>INDEX(Data!P:P,MATCH($O115,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G115" t="e">
+        <v>500</v>
+      </c>
+      <c r="G115">
         <f>INDEX(Data!Z:Z,MATCH($O115,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H115" t="e">
+        <v>48</v>
+      </c>
+      <c r="H115">
         <f>INDEX(Data!AA:AA,MATCH($O115,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I115" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I115" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O115,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J115" t="e">
+        <v>[0.1, 0.2, 0.3, 0.4]</v>
+      </c>
+      <c r="J115" t="str">
         <f>INDEX(Data!W:W,MATCH($O115,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K115" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K115" t="str">
         <f>INDEX(Data!X:X,MATCH($O115,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L115" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L115" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O115,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M115" t="e">
+        <v>1</v>
+      </c>
+      <c r="M115" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O115,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N115" t="e">
+        <v>1</v>
+      </c>
+      <c r="N115">
         <f>INDEX(Data!Q:Q,MATCH($O115,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O115" t="s">
+        <v>89</v>
       </c>
       <c r="P115" s="12" t="str">
         <f>_xlfn.CONCAT(B115,O112)</f>
-        <v>SPCL</v>
+        <v>SPCL2024-01-20 10-15-48</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -7483,56 +7510,58 @@
       </c>
       <c r="C116" s="11">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P116,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>89.999999999999901</v>
       </c>
       <c r="D116" s="11">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P116,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E116" s="1" t="e">
+        <v>87.03</v>
+      </c>
+      <c r="E116" s="1">
         <f>INDEX(Data!T:T,MATCH($O116,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F116" s="1" t="e">
+        <v>8</v>
+      </c>
+      <c r="F116" s="1">
         <f>INDEX(Data!P:P,MATCH($O116,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G116" s="1" t="e">
+        <v>500</v>
+      </c>
+      <c r="G116" s="1">
         <f>INDEX(Data!Z:Z,MATCH($O116,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H116" s="1" t="e">
+        <v>48</v>
+      </c>
+      <c r="H116" s="1">
         <f>INDEX(Data!AA:AA,MATCH($O116,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I116" s="1" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I116" s="1" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O116,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J116" s="1" t="e">
+        <v>[0.1, 0.2, 0.3, 0.4]</v>
+      </c>
+      <c r="J116" s="1" t="str">
         <f>INDEX(Data!W:W,MATCH($O116,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K116" s="1" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K116" s="1" t="str">
         <f>INDEX(Data!X:X,MATCH($O116,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L116" s="1" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L116" s="1" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O116,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M116" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="M116" s="1" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O116,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N116" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="N116" s="1">
         <f>INDEX(Data!Q:Q,MATCH($O116,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O116" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="P116" s="13" t="str">
         <f>_xlfn.CONCAT(B116,O112)</f>
-        <v>SPACL</v>
+        <v>SPACL2024-01-20 10-15-48</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -7544,55 +7573,58 @@
       </c>
       <c r="C117" s="9">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P117,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>87.708333330000002</v>
       </c>
       <c r="D117" s="9">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P117,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="e">
+        <v>81.88</v>
+      </c>
+      <c r="E117" s="2">
         <f>INDEX(Data!T:T,MATCH($O117,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F117" s="2" t="e">
+        <v>8</v>
+      </c>
+      <c r="F117" s="2">
         <f>INDEX(Data!P:P,MATCH($O117,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G117" s="2" t="e">
+        <v>500</v>
+      </c>
+      <c r="G117" s="2">
         <f>INDEX(Data!Z:Z,MATCH($O117,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H117" s="2" t="e">
+        <v>48</v>
+      </c>
+      <c r="H117" s="2">
         <f>INDEX(Data!AA:AA,MATCH($O117,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I117" s="2" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I117" s="2" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O117,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J117" s="2" t="e">
+        <v>[0.1, 0.2, 0.3, 0.4]</v>
+      </c>
+      <c r="J117" s="2" t="str">
         <f>INDEX(Data!W:W,MATCH($O117,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K117" s="2" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K117" s="2" t="str">
         <f>INDEX(Data!X:X,MATCH($O117,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L117" s="2" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L117" s="2" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O117,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M117" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="M117" s="2" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O117,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N117" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="N117" s="2">
         <f>INDEX(Data!Q:Q,MATCH($O117,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O117" t="s">
+        <v>90</v>
       </c>
       <c r="P117" s="12" t="str">
         <f>_xlfn.CONCAT(B117,O117)</f>
-        <v>NCL</v>
+        <v>NCL2024-01-20 11-23-59</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
@@ -7604,55 +7636,58 @@
       </c>
       <c r="C118" s="10">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P118,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>83.125</v>
       </c>
       <c r="D118" s="10">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P118,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E118" t="e">
+        <v>78.36</v>
+      </c>
+      <c r="E118">
         <f>INDEX(Data!T:T,MATCH($O118,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F118" t="e">
+        <v>8</v>
+      </c>
+      <c r="F118">
         <f>INDEX(Data!P:P,MATCH($O118,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G118" t="e">
+        <v>500</v>
+      </c>
+      <c r="G118">
         <f>INDEX(Data!Z:Z,MATCH($O118,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H118" t="e">
+        <v>48</v>
+      </c>
+      <c r="H118">
         <f>INDEX(Data!AA:AA,MATCH($O118,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I118" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I118" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O118,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J118" t="e">
+        <v>[0.1, 0.2, 0.3, 0.4]</v>
+      </c>
+      <c r="J118" t="str">
         <f>INDEX(Data!W:W,MATCH($O118,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K118" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K118" t="str">
         <f>INDEX(Data!X:X,MATCH($O118,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L118" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L118" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O118,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M118" t="e">
+        <v>0</v>
+      </c>
+      <c r="M118" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O118,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N118" t="e">
+        <v>1</v>
+      </c>
+      <c r="N118">
         <f>INDEX(Data!Q:Q,MATCH($O118,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O118" t="s">
+        <v>90</v>
       </c>
       <c r="P118" s="12" t="str">
         <f>_xlfn.CONCAT(B118,O117)</f>
-        <v>CL</v>
+        <v>CL2024-01-20 11-23-59</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
@@ -7664,55 +7699,58 @@
       </c>
       <c r="C119" s="10">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P119,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="D119" s="10">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P119,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E119" t="e">
+        <v>81.77</v>
+      </c>
+      <c r="E119">
         <f>INDEX(Data!T:T,MATCH($O119,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F119" t="e">
+        <v>8</v>
+      </c>
+      <c r="F119">
         <f>INDEX(Data!P:P,MATCH($O119,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G119" t="e">
+        <v>500</v>
+      </c>
+      <c r="G119">
         <f>INDEX(Data!Z:Z,MATCH($O119,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H119" t="e">
+        <v>48</v>
+      </c>
+      <c r="H119">
         <f>INDEX(Data!AA:AA,MATCH($O119,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I119" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I119" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O119,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J119" t="e">
+        <v>[0.1, 0.2, 0.3, 0.4]</v>
+      </c>
+      <c r="J119" t="str">
         <f>INDEX(Data!W:W,MATCH($O119,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K119" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K119" t="str">
         <f>INDEX(Data!X:X,MATCH($O119,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L119" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L119" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O119,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M119" t="e">
+        <v>0</v>
+      </c>
+      <c r="M119" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O119,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N119" t="e">
+        <v>1</v>
+      </c>
+      <c r="N119">
         <f>INDEX(Data!Q:Q,MATCH($O119,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O119" t="s">
+        <v>90</v>
       </c>
       <c r="P119" s="12" t="str">
         <f>_xlfn.CONCAT(B119,O117)</f>
-        <v>ACL</v>
+        <v>ACL2024-01-20 11-23-59</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -7724,55 +7762,58 @@
       </c>
       <c r="C120" s="10">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P120,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>88.125</v>
       </c>
       <c r="D120" s="10">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P120,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E120" t="e">
+        <v>80.819999999999993</v>
+      </c>
+      <c r="E120">
         <f>INDEX(Data!T:T,MATCH($O120,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F120" t="e">
+        <v>8</v>
+      </c>
+      <c r="F120">
         <f>INDEX(Data!P:P,MATCH($O120,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G120" t="e">
+        <v>500</v>
+      </c>
+      <c r="G120">
         <f>INDEX(Data!Z:Z,MATCH($O120,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H120" t="e">
+        <v>48</v>
+      </c>
+      <c r="H120">
         <f>INDEX(Data!AA:AA,MATCH($O120,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I120" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I120" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O120,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J120" t="e">
+        <v>[0.1, 0.2, 0.3, 0.4]</v>
+      </c>
+      <c r="J120" t="str">
         <f>INDEX(Data!W:W,MATCH($O120,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K120" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K120" t="str">
         <f>INDEX(Data!X:X,MATCH($O120,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L120" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L120" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O120,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M120" t="e">
+        <v>0</v>
+      </c>
+      <c r="M120" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O120,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N120" t="e">
+        <v>1</v>
+      </c>
+      <c r="N120">
         <f>INDEX(Data!Q:Q,MATCH($O120,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O120" t="s">
+        <v>90</v>
       </c>
       <c r="P120" s="12" t="str">
         <f>_xlfn.CONCAT(B120,O117)</f>
-        <v>SPCL</v>
+        <v>SPCL2024-01-20 11-23-59</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -7784,56 +7825,58 @@
       </c>
       <c r="C121" s="11">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P121,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>85.625</v>
       </c>
       <c r="D121" s="11">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P121,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E121" s="1" t="e">
+        <v>78.61</v>
+      </c>
+      <c r="E121" s="1">
         <f>INDEX(Data!T:T,MATCH($O121,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F121" s="1" t="e">
+        <v>8</v>
+      </c>
+      <c r="F121" s="1">
         <f>INDEX(Data!P:P,MATCH($O121,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G121" s="1" t="e">
+        <v>500</v>
+      </c>
+      <c r="G121" s="1">
         <f>INDEX(Data!Z:Z,MATCH($O121,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H121" s="1" t="e">
+        <v>48</v>
+      </c>
+      <c r="H121" s="1">
         <f>INDEX(Data!AA:AA,MATCH($O121,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I121" s="1" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I121" s="1" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O121,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J121" s="1" t="e">
+        <v>[0.1, 0.2, 0.3, 0.4]</v>
+      </c>
+      <c r="J121" s="1" t="str">
         <f>INDEX(Data!W:W,MATCH($O121,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K121" s="1" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K121" s="1" t="str">
         <f>INDEX(Data!X:X,MATCH($O121,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L121" s="1" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L121" s="1" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O121,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M121" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="M121" s="1" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O121,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N121" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="N121" s="1">
         <f>INDEX(Data!Q:Q,MATCH($O121,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O121" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="P121" s="13" t="str">
         <f>_xlfn.CONCAT(B121,O117)</f>
-        <v>SPACL</v>
+        <v>SPACL2024-01-20 11-23-59</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -7845,55 +7888,58 @@
       </c>
       <c r="C122" s="9">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P122,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>91.458333330000002</v>
       </c>
       <c r="D122" s="9">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P122,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="e">
+        <v>83.92</v>
+      </c>
+      <c r="E122" s="2">
         <f>INDEX(Data!T:T,MATCH($O122,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F122" s="2" t="e">
+        <v>8</v>
+      </c>
+      <c r="F122" s="2">
         <f>INDEX(Data!P:P,MATCH($O122,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G122" s="2" t="e">
+        <v>500</v>
+      </c>
+      <c r="G122" s="2">
         <f>INDEX(Data!Z:Z,MATCH($O122,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H122" s="2" t="e">
+        <v>48</v>
+      </c>
+      <c r="H122" s="2">
         <f>INDEX(Data!AA:AA,MATCH($O122,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I122" s="2" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I122" s="2" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O122,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J122" s="2" t="e">
+        <v>[0.4, 0.3, 0.2, 0.1]</v>
+      </c>
+      <c r="J122" s="2" t="str">
         <f>INDEX(Data!W:W,MATCH($O122,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K122" s="2" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K122" s="2" t="str">
         <f>INDEX(Data!X:X,MATCH($O122,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L122" s="2" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L122" s="2" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O122,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M122" s="2" t="e">
+        <v>0</v>
+      </c>
+      <c r="M122" s="2" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O122,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N122" s="2" t="e">
+        <v>1</v>
+      </c>
+      <c r="N122" s="2">
         <f>INDEX(Data!Q:Q,MATCH($O122,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O122" t="s">
+        <v>91</v>
       </c>
       <c r="P122" s="12" t="str">
         <f>_xlfn.CONCAT(B122,O122)</f>
-        <v>NCL</v>
+        <v>NCL2024-01-20 11-50-23</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -7905,55 +7951,58 @@
       </c>
       <c r="C123" s="10">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P123,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>91.458333330000002</v>
       </c>
       <c r="D123" s="10">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P123,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E123" t="e">
+        <v>82.89</v>
+      </c>
+      <c r="E123">
         <f>INDEX(Data!T:T,MATCH($O123,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F123" t="e">
+        <v>8</v>
+      </c>
+      <c r="F123">
         <f>INDEX(Data!P:P,MATCH($O123,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G123" t="e">
+        <v>500</v>
+      </c>
+      <c r="G123">
         <f>INDEX(Data!Z:Z,MATCH($O123,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H123" t="e">
+        <v>48</v>
+      </c>
+      <c r="H123">
         <f>INDEX(Data!AA:AA,MATCH($O123,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I123" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I123" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O123,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J123" t="e">
+        <v>[0.4, 0.3, 0.2, 0.1]</v>
+      </c>
+      <c r="J123" t="str">
         <f>INDEX(Data!W:W,MATCH($O123,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K123" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K123" t="str">
         <f>INDEX(Data!X:X,MATCH($O123,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L123" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L123" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O123,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M123" t="e">
+        <v>0</v>
+      </c>
+      <c r="M123" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O123,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N123" t="e">
+        <v>1</v>
+      </c>
+      <c r="N123">
         <f>INDEX(Data!Q:Q,MATCH($O123,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O123" t="s">
+        <v>91</v>
       </c>
       <c r="P123" s="12" t="str">
         <f>_xlfn.CONCAT(B123,O122)</f>
-        <v>CL</v>
+        <v>CL2024-01-20 11-50-23</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
@@ -7965,55 +8014,58 @@
       </c>
       <c r="C124" s="10">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P124,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>94.375</v>
       </c>
       <c r="D124" s="10">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P124,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E124" t="e">
+        <v>87.51</v>
+      </c>
+      <c r="E124">
         <f>INDEX(Data!T:T,MATCH($O124,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F124" t="e">
+        <v>8</v>
+      </c>
+      <c r="F124">
         <f>INDEX(Data!P:P,MATCH($O124,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G124" t="e">
+        <v>500</v>
+      </c>
+      <c r="G124">
         <f>INDEX(Data!Z:Z,MATCH($O124,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H124" t="e">
+        <v>48</v>
+      </c>
+      <c r="H124">
         <f>INDEX(Data!AA:AA,MATCH($O124,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I124" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I124" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O124,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J124" t="e">
+        <v>[0.4, 0.3, 0.2, 0.1]</v>
+      </c>
+      <c r="J124" t="str">
         <f>INDEX(Data!W:W,MATCH($O124,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K124" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K124" t="str">
         <f>INDEX(Data!X:X,MATCH($O124,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L124" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L124" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O124,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M124" t="e">
+        <v>0</v>
+      </c>
+      <c r="M124" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O124,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N124" t="e">
+        <v>1</v>
+      </c>
+      <c r="N124">
         <f>INDEX(Data!Q:Q,MATCH($O124,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O124" t="s">
+        <v>91</v>
       </c>
       <c r="P124" s="12" t="str">
         <f>_xlfn.CONCAT(B124,O122)</f>
-        <v>ACL</v>
+        <v>ACL2024-01-20 11-50-23</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
@@ -8025,55 +8077,58 @@
       </c>
       <c r="C125" s="10">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P125,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>90.833333330000002</v>
       </c>
       <c r="D125" s="10">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P125,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E125" t="e">
+        <v>82.97</v>
+      </c>
+      <c r="E125">
         <f>INDEX(Data!T:T,MATCH($O125,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F125" t="e">
+        <v>8</v>
+      </c>
+      <c r="F125">
         <f>INDEX(Data!P:P,MATCH($O125,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G125" t="e">
+        <v>500</v>
+      </c>
+      <c r="G125">
         <f>INDEX(Data!Z:Z,MATCH($O125,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H125" t="e">
+        <v>48</v>
+      </c>
+      <c r="H125">
         <f>INDEX(Data!AA:AA,MATCH($O125,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I125" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I125" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O125,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J125" t="e">
+        <v>[0.4, 0.3, 0.2, 0.1]</v>
+      </c>
+      <c r="J125" t="str">
         <f>INDEX(Data!W:W,MATCH($O125,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K125" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K125" t="str">
         <f>INDEX(Data!X:X,MATCH($O125,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L125" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L125" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O125,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M125" t="e">
+        <v>0</v>
+      </c>
+      <c r="M125" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O125,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N125" t="e">
+        <v>1</v>
+      </c>
+      <c r="N125">
         <f>INDEX(Data!Q:Q,MATCH($O125,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
+        <v>10</v>
+      </c>
+      <c r="O125" t="s">
+        <v>91</v>
       </c>
       <c r="P125" s="12" t="str">
         <f>_xlfn.CONCAT(B125,O122)</f>
-        <v>SPCL</v>
+        <v>SPCL2024-01-20 11-50-23</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
@@ -8085,56 +8140,58 @@
       </c>
       <c r="C126" s="11">
         <f>INDEX(Data!L:L,MATCH('Sum up'!P126,Data!AL:AL,0))</f>
-        <v>0</v>
+        <v>91.875</v>
       </c>
       <c r="D126" s="11">
         <f>INDEX(Data!N:N,MATCH('Sum up'!P126,Data!AL:AL,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E126" s="1" t="e">
+        <v>83.88</v>
+      </c>
+      <c r="E126" s="1">
         <f>INDEX(Data!T:T,MATCH($O126,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F126" s="1" t="e">
+        <v>8</v>
+      </c>
+      <c r="F126" s="1">
         <f>INDEX(Data!P:P,MATCH($O126,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G126" s="1" t="e">
+        <v>500</v>
+      </c>
+      <c r="G126" s="1">
         <f>INDEX(Data!Z:Z,MATCH($O126,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H126" s="1" t="e">
+        <v>48</v>
+      </c>
+      <c r="H126" s="1">
         <f>INDEX(Data!AA:AA,MATCH($O126,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I126" s="1" t="e">
+        <v>1000</v>
+      </c>
+      <c r="I126" s="1" t="str">
         <f>INDEX(Data!AB:AB,MATCH($O126,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J126" s="1" t="e">
+        <v>[0.4, 0.3, 0.2, 0.1]</v>
+      </c>
+      <c r="J126" s="1" t="str">
         <f>INDEX(Data!W:W,MATCH($O126,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K126" s="1" t="e">
+        <v>mean_squares</v>
+      </c>
+      <c r="K126" s="1" t="str">
         <f>INDEX(Data!X:X,MATCH($O126,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L126" s="1" t="e">
+        <v>gaussian</v>
+      </c>
+      <c r="L126" s="1" t="b">
         <f>INDEX(Data!AC:AC,MATCH($O126,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M126" s="1" t="e">
+        <v>0</v>
+      </c>
+      <c r="M126" s="1" t="b">
         <f>INDEX(Data!AE:AE,MATCH($O126,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N126" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="N126" s="1">
         <f>INDEX(Data!Q:Q,MATCH($O126,Data!$AK:$AK,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O126" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="P126" s="13" t="str">
         <f>_xlfn.CONCAT(B126,O122)</f>
-        <v>SPACL</v>
+        <v>SPACL2024-01-20 11-50-23</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -30128,6 +30185,54 @@
   </sheetData>
   <autoFilter ref="A1:Q491" xr:uid="{D965C72C-02F5-423A-8A05-F3CD6EF68BDE}"/>
   <conditionalFormatting sqref="C2:C4">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C7">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C10">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:C13">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:C16">
     <cfRule type="colorScale" priority="98">
       <colorScale>
         <cfvo type="min"/>
@@ -30139,7 +30244,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C7">
+  <conditionalFormatting sqref="C17:C21">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C26">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="min"/>
@@ -30151,7 +30268,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C10">
+  <conditionalFormatting sqref="C27:C31">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="min"/>
@@ -30163,7 +30280,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C13">
+  <conditionalFormatting sqref="C32:C36">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="min"/>
@@ -30175,7 +30292,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14:C16">
+  <conditionalFormatting sqref="C37:C41">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
@@ -30187,19 +30304,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C21">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C26">
+  <conditionalFormatting sqref="C42:C46">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
@@ -30211,19 +30316,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C31">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C36">
+  <conditionalFormatting sqref="C47:C51">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="min"/>
@@ -30235,7 +30328,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C41">
+  <conditionalFormatting sqref="C52:C56">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52:C61">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
@@ -30247,8 +30352,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C46">
-    <cfRule type="colorScale" priority="80">
+  <conditionalFormatting sqref="C57:C61">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30259,7 +30364,283 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C47:C51">
+  <conditionalFormatting sqref="C62:C66">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C67:C71">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72:C76">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77:C81">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82:C86">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87:C91">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92:C96">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97:C101">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102:C106">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D7">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D10">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D13">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:D16">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D21">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D26">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D31">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D36">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:D41">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D46">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:D51">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:D56">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:D61">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D66">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
@@ -30271,8 +30652,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C56">
-    <cfRule type="colorScale" priority="69">
+  <conditionalFormatting sqref="D67:D71">
+    <cfRule type="colorScale" priority="73">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30283,8 +30664,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52:C61">
-    <cfRule type="colorScale" priority="74">
+  <conditionalFormatting sqref="D72:D76">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30295,8 +30676,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C61">
-    <cfRule type="colorScale" priority="71">
+  <conditionalFormatting sqref="D77:D81">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30307,8 +30688,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C62:C66">
-    <cfRule type="colorScale" priority="67">
+  <conditionalFormatting sqref="D82:D86">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30319,8 +30700,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67:C71">
-    <cfRule type="colorScale" priority="66">
+  <conditionalFormatting sqref="D87:D91">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30331,7 +30712,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C76">
+  <conditionalFormatting sqref="D92:D96">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -30343,8 +30724,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C77:C81">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="D97:D101">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -30355,7 +30736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C86">
+  <conditionalFormatting sqref="D102:D106">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -30367,7 +30748,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C87:C91">
+  <conditionalFormatting sqref="C107:C111">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D107:D111">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -30379,7 +30772,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92:C96">
+  <conditionalFormatting sqref="D112:D116">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112:C116">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -30391,7 +30796,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C97:C101">
+  <conditionalFormatting sqref="C117:C121">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117:D121">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -30403,7 +30820,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C102:C106">
+  <conditionalFormatting sqref="C122:C126">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -30415,271 +30832,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D4">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D7">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D10">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D13">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D16">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D21">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D26">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D31">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D36">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D41">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D46">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D51">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D56">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57:D61">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D66">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67:D71">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72:D76">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D77:D81">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D82:D86">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87:D91">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D92:D96">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97:D101">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D102:D106">
+  <conditionalFormatting sqref="D122:D126">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -30699,11 +30852,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM668"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J95" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
+      <selection pane="bottomRight" activeCell="J113" sqref="J113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37262,22 +37415,48 @@
       </c>
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" t="s">
         <v>45</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
+      <c r="B104">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>307</v>
+      </c>
+      <c r="F104">
+        <v>499</v>
+      </c>
+      <c r="G104">
+        <v>97.9166666666666</v>
+      </c>
+      <c r="H104">
+        <v>97.9166666666666</v>
+      </c>
+      <c r="I104">
+        <v>87.7</v>
+      </c>
+      <c r="J104">
+        <v>87.3</v>
+      </c>
+      <c r="K104">
+        <v>96.4583333333333</v>
+      </c>
+      <c r="L104">
+        <v>95.4166666666666</v>
+      </c>
+      <c r="M104">
+        <v>85.77</v>
+      </c>
+      <c r="N104">
+        <v>86.45</v>
+      </c>
       <c r="O104" s="2"/>
       <c r="P104">
         <v>500</v>
@@ -37351,8 +37530,47 @@
       </c>
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="15" t="s">
         <v>46</v>
+      </c>
+      <c r="B105" s="15">
+        <v>10</v>
+      </c>
+      <c r="C105" s="15">
+        <v>7</v>
+      </c>
+      <c r="D105" s="15">
+        <v>2</v>
+      </c>
+      <c r="E105" s="15">
+        <v>381</v>
+      </c>
+      <c r="F105" s="15">
+        <v>499</v>
+      </c>
+      <c r="G105" s="15">
+        <v>97.9166666666666</v>
+      </c>
+      <c r="H105" s="15">
+        <v>95.8333333333333</v>
+      </c>
+      <c r="I105" s="15">
+        <v>87.4</v>
+      </c>
+      <c r="J105" s="15">
+        <v>88.3</v>
+      </c>
+      <c r="K105" s="15">
+        <v>92.5</v>
+      </c>
+      <c r="L105" s="15">
+        <v>91.6666666666666</v>
+      </c>
+      <c r="M105" s="15">
+        <v>82.74</v>
+      </c>
+      <c r="N105" s="15">
+        <v>83.789999999999907</v>
       </c>
       <c r="AL105" t="str">
         <f>_xlfn.CONCAT(A105,AK104)</f>
@@ -37360,8 +37578,47 @@
       </c>
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="15" t="s">
         <v>47</v>
+      </c>
+      <c r="B106" s="15">
+        <v>10</v>
+      </c>
+      <c r="C106" s="15">
+        <v>1</v>
+      </c>
+      <c r="D106" s="15">
+        <v>8</v>
+      </c>
+      <c r="E106" s="15">
+        <v>164</v>
+      </c>
+      <c r="F106" s="15">
+        <v>499</v>
+      </c>
+      <c r="G106" s="15">
+        <v>100</v>
+      </c>
+      <c r="H106" s="15">
+        <v>97.9166666666666</v>
+      </c>
+      <c r="I106" s="15">
+        <v>89.9</v>
+      </c>
+      <c r="J106" s="15">
+        <v>85.8</v>
+      </c>
+      <c r="K106" s="15">
+        <v>97.9166666666666</v>
+      </c>
+      <c r="L106" s="15">
+        <v>94.7916666666666</v>
+      </c>
+      <c r="M106" s="15">
+        <v>87.16</v>
+      </c>
+      <c r="N106" s="15">
+        <v>86.84</v>
       </c>
       <c r="AL106" t="str">
         <f>_xlfn.CONCAT(A106,AK104)</f>
@@ -37369,8 +37626,47 @@
       </c>
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="15" t="s">
         <v>48</v>
+      </c>
+      <c r="B107" s="15">
+        <v>10</v>
+      </c>
+      <c r="C107" s="15">
+        <v>2</v>
+      </c>
+      <c r="D107" s="15">
+        <v>2</v>
+      </c>
+      <c r="E107" s="15">
+        <v>380</v>
+      </c>
+      <c r="F107" s="15">
+        <v>499</v>
+      </c>
+      <c r="G107" s="15">
+        <v>100</v>
+      </c>
+      <c r="H107" s="15">
+        <v>97.9166666666666</v>
+      </c>
+      <c r="I107" s="15">
+        <v>86.2</v>
+      </c>
+      <c r="J107" s="15">
+        <v>90.3</v>
+      </c>
+      <c r="K107" s="15">
+        <v>96.6666666666666</v>
+      </c>
+      <c r="L107" s="15">
+        <v>95.4166666666666</v>
+      </c>
+      <c r="M107" s="15">
+        <v>85.94</v>
+      </c>
+      <c r="N107" s="15">
+        <v>86.789999999999907</v>
       </c>
       <c r="AL107" t="str">
         <f>_xlfn.CONCAT(A107,AK104)</f>
@@ -37381,19 +37677,45 @@
       <c r="A108" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
+      <c r="B108" s="1">
+        <v>10</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>9</v>
+      </c>
+      <c r="E108" s="1">
+        <v>47</v>
+      </c>
+      <c r="F108" s="1">
+        <v>499</v>
+      </c>
+      <c r="G108" s="1">
+        <v>100</v>
+      </c>
+      <c r="H108" s="1">
+        <v>95.8333333333333</v>
+      </c>
+      <c r="I108" s="1">
+        <v>89.6</v>
+      </c>
+      <c r="J108" s="1">
+        <v>86.9</v>
+      </c>
+      <c r="K108" s="1">
+        <v>99.7916666666666</v>
+      </c>
+      <c r="L108" s="1">
+        <v>93.75</v>
+      </c>
+      <c r="M108" s="1">
+        <v>87.55</v>
+      </c>
+      <c r="N108" s="1">
+        <v>86.11</v>
+      </c>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -37423,22 +37745,48 @@
       </c>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="A109" t="s">
         <v>45</v>
       </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
+      <c r="B109">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>8</v>
+      </c>
+      <c r="E109">
+        <v>15</v>
+      </c>
+      <c r="F109">
+        <v>499</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+      <c r="H109">
+        <v>95.8333333333333</v>
+      </c>
+      <c r="I109">
+        <v>92.9</v>
+      </c>
+      <c r="J109">
+        <v>91.3</v>
+      </c>
+      <c r="K109">
+        <v>92.7083333333333</v>
+      </c>
+      <c r="L109">
+        <v>90.4166666666666</v>
+      </c>
+      <c r="M109">
+        <v>85.73</v>
+      </c>
+      <c r="N109">
+        <v>86.85</v>
+      </c>
       <c r="O109" s="2"/>
       <c r="P109">
         <v>500</v>
@@ -37515,6 +37863,45 @@
       <c r="A110" t="s">
         <v>46</v>
       </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110">
+        <v>477</v>
+      </c>
+      <c r="F110">
+        <v>499</v>
+      </c>
+      <c r="G110" s="15">
+        <v>93.75</v>
+      </c>
+      <c r="H110" s="15">
+        <v>91.6666666666666</v>
+      </c>
+      <c r="I110" s="15">
+        <v>88.1</v>
+      </c>
+      <c r="J110" s="15">
+        <v>87.9</v>
+      </c>
+      <c r="K110" s="15">
+        <v>89.999999999999901</v>
+      </c>
+      <c r="L110" s="15">
+        <v>89.5833333333333</v>
+      </c>
+      <c r="M110" s="15">
+        <v>84</v>
+      </c>
+      <c r="N110" s="15">
+        <v>85.34</v>
+      </c>
       <c r="AL110" t="str">
         <f>_xlfn.CONCAT(A110,AK109)</f>
         <v>CL2024-01-20 10-15-48</v>
@@ -37524,6 +37911,45 @@
       <c r="A111" t="s">
         <v>47</v>
       </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>8</v>
+      </c>
+      <c r="E111">
+        <v>385</v>
+      </c>
+      <c r="F111">
+        <v>499</v>
+      </c>
+      <c r="G111" s="15">
+        <v>100</v>
+      </c>
+      <c r="H111" s="15">
+        <v>91.6666666666666</v>
+      </c>
+      <c r="I111" s="15">
+        <v>91.7</v>
+      </c>
+      <c r="J111" s="15">
+        <v>86.7</v>
+      </c>
+      <c r="K111" s="15">
+        <v>97.0833333333333</v>
+      </c>
+      <c r="L111" s="15">
+        <v>90.8333333333333</v>
+      </c>
+      <c r="M111" s="15">
+        <v>89.15</v>
+      </c>
+      <c r="N111" s="15">
+        <v>87.869999999999905</v>
+      </c>
       <c r="AL111" t="str">
         <f>_xlfn.CONCAT(A111,AK109)</f>
         <v>ACL2024-01-20 10-15-48</v>
@@ -37533,28 +37959,93 @@
       <c r="A112" t="s">
         <v>48</v>
       </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>7</v>
+      </c>
+      <c r="E112">
+        <v>424</v>
+      </c>
+      <c r="F112">
+        <v>499</v>
+      </c>
+      <c r="G112" s="15">
+        <v>97.9166666666666</v>
+      </c>
+      <c r="H112" s="15">
+        <v>93.75</v>
+      </c>
+      <c r="I112" s="15">
+        <v>91.3</v>
+      </c>
+      <c r="J112" s="15">
+        <v>91.3</v>
+      </c>
+      <c r="K112" s="15">
+        <v>94.375</v>
+      </c>
+      <c r="L112" s="15">
+        <v>92.2916666666666</v>
+      </c>
+      <c r="M112" s="15">
+        <v>87.94</v>
+      </c>
+      <c r="N112" s="15">
+        <v>87.99</v>
+      </c>
       <c r="AL112" t="str">
         <f>_xlfn.CONCAT(A112,AK109)</f>
         <v>SPCL2024-01-20 10-15-48</v>
       </c>
     </row>
     <row r="113" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>49</v>
       </c>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>122</v>
+      </c>
+      <c r="F113">
+        <v>499</v>
+      </c>
+      <c r="G113" s="1">
+        <v>100</v>
+      </c>
+      <c r="H113" s="1">
+        <v>91.6666666666666</v>
+      </c>
+      <c r="I113" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="J113" s="1">
+        <v>87.6</v>
+      </c>
+      <c r="K113" s="1">
+        <v>100</v>
+      </c>
+      <c r="L113" s="1">
+        <v>89.999999999999901</v>
+      </c>
+      <c r="M113" s="1">
+        <v>89.809999999999903</v>
+      </c>
+      <c r="N113" s="1">
+        <v>87.03</v>
+      </c>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
@@ -37587,19 +38078,45 @@
       <c r="A114" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
+      <c r="B114" s="2">
+        <v>10</v>
+      </c>
+      <c r="C114" s="2">
+        <v>3</v>
+      </c>
+      <c r="D114" s="2">
+        <v>6</v>
+      </c>
+      <c r="E114" s="2">
+        <v>100</v>
+      </c>
+      <c r="F114" s="2">
+        <v>499</v>
+      </c>
+      <c r="G114">
+        <v>97.916666669999998</v>
+      </c>
+      <c r="H114">
+        <v>89.583333330000002</v>
+      </c>
+      <c r="I114">
+        <v>84.9</v>
+      </c>
+      <c r="J114">
+        <v>83.3</v>
+      </c>
+      <c r="K114">
+        <v>91.458333330000002</v>
+      </c>
+      <c r="L114">
+        <v>87.708333330000002</v>
+      </c>
+      <c r="M114">
+        <v>81.680000000000007</v>
+      </c>
+      <c r="N114">
+        <v>81.88</v>
+      </c>
       <c r="O114" s="2"/>
       <c r="P114">
         <v>500</v>
@@ -37676,6 +38193,45 @@
       <c r="A115" t="s">
         <v>46</v>
       </c>
+      <c r="B115">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>450</v>
+      </c>
+      <c r="F115">
+        <v>499</v>
+      </c>
+      <c r="G115" s="15">
+        <v>89.583333330000002</v>
+      </c>
+      <c r="H115" s="15">
+        <v>89.583333330000002</v>
+      </c>
+      <c r="I115" s="15">
+        <v>81.3</v>
+      </c>
+      <c r="J115" s="15">
+        <v>82</v>
+      </c>
+      <c r="K115" s="15">
+        <v>83.958333330000002</v>
+      </c>
+      <c r="L115" s="15">
+        <v>83.125</v>
+      </c>
+      <c r="M115" s="15">
+        <v>76.63</v>
+      </c>
+      <c r="N115" s="15">
+        <v>78.36</v>
+      </c>
       <c r="AL115" t="str">
         <f>_xlfn.CONCAT(A115,AK114)</f>
         <v>CL2024-01-20 11-23-59</v>
@@ -37685,6 +38241,45 @@
       <c r="A116" t="s">
         <v>47</v>
       </c>
+      <c r="B116">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>347</v>
+      </c>
+      <c r="F116">
+        <v>499</v>
+      </c>
+      <c r="G116" s="15">
+        <v>100</v>
+      </c>
+      <c r="H116" s="15">
+        <v>95.833333330000002</v>
+      </c>
+      <c r="I116" s="15">
+        <v>90.1</v>
+      </c>
+      <c r="J116" s="15">
+        <v>82.7</v>
+      </c>
+      <c r="K116" s="15">
+        <v>90.208333330000002</v>
+      </c>
+      <c r="L116" s="15">
+        <v>87.5</v>
+      </c>
+      <c r="M116" s="15">
+        <v>82.94</v>
+      </c>
+      <c r="N116" s="15">
+        <v>81.77</v>
+      </c>
       <c r="AL116" t="str">
         <f>_xlfn.CONCAT(A116,AK114)</f>
         <v>ACL2024-01-20 11-23-59</v>
@@ -37694,6 +38289,45 @@
       <c r="A117" t="s">
         <v>48</v>
       </c>
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>436</v>
+      </c>
+      <c r="F117">
+        <v>499</v>
+      </c>
+      <c r="G117" s="15">
+        <v>100</v>
+      </c>
+      <c r="H117" s="15">
+        <v>89.583333330000002</v>
+      </c>
+      <c r="I117" s="15">
+        <v>88.8</v>
+      </c>
+      <c r="J117" s="15">
+        <v>85.5</v>
+      </c>
+      <c r="K117" s="15">
+        <v>90.208333330000002</v>
+      </c>
+      <c r="L117" s="15">
+        <v>88.125</v>
+      </c>
+      <c r="M117" s="15">
+        <v>80.180000000000007</v>
+      </c>
+      <c r="N117" s="15">
+        <v>80.819999999999993</v>
+      </c>
       <c r="AL117" t="str">
         <f>_xlfn.CONCAT(A117,AK114)</f>
         <v>SPCL2024-01-20 11-23-59</v>
@@ -37703,19 +38337,45 @@
       <c r="A118" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
+      <c r="B118" s="1">
+        <v>10</v>
+      </c>
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1">
+        <v>9</v>
+      </c>
+      <c r="E118" s="1">
+        <v>81</v>
+      </c>
+      <c r="F118" s="1">
+        <v>499</v>
+      </c>
+      <c r="G118" s="1">
+        <v>100</v>
+      </c>
+      <c r="H118" s="1">
+        <v>85.416666669999998</v>
+      </c>
+      <c r="I118" s="1">
+        <v>82.5</v>
+      </c>
+      <c r="J118" s="1">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="K118" s="1">
+        <v>100</v>
+      </c>
+      <c r="L118" s="1">
+        <v>85.625</v>
+      </c>
+      <c r="M118" s="1">
+        <v>88.55</v>
+      </c>
+      <c r="N118" s="1">
+        <v>78.61</v>
+      </c>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
       <c r="Q118" s="1"/>
@@ -37748,19 +38408,45 @@
       <c r="A119" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
+      <c r="B119" s="2">
+        <v>10</v>
+      </c>
+      <c r="C119" s="2">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2">
+        <v>8</v>
+      </c>
+      <c r="E119" s="2">
+        <v>243</v>
+      </c>
+      <c r="F119" s="2">
+        <v>499</v>
+      </c>
+      <c r="G119">
+        <v>97.916666669999998</v>
+      </c>
+      <c r="H119">
+        <v>97.916666669999998</v>
+      </c>
+      <c r="I119">
+        <v>90.4</v>
+      </c>
+      <c r="J119">
+        <v>93.9</v>
+      </c>
+      <c r="K119">
+        <v>92.291666669999998</v>
+      </c>
+      <c r="L119">
+        <v>91.458333330000002</v>
+      </c>
+      <c r="M119">
+        <v>83.16</v>
+      </c>
+      <c r="N119">
+        <v>83.92</v>
+      </c>
       <c r="O119" s="2"/>
       <c r="P119">
         <v>500</v>
@@ -37837,6 +38523,45 @@
       <c r="A120" t="s">
         <v>46</v>
       </c>
+      <c r="B120">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120">
+        <v>407</v>
+      </c>
+      <c r="F120">
+        <v>499</v>
+      </c>
+      <c r="G120" s="15">
+        <v>93.75</v>
+      </c>
+      <c r="H120" s="15">
+        <v>91.666666669999998</v>
+      </c>
+      <c r="I120" s="15">
+        <v>82</v>
+      </c>
+      <c r="J120" s="15">
+        <v>84.1</v>
+      </c>
+      <c r="K120" s="15">
+        <v>91.875</v>
+      </c>
+      <c r="L120" s="15">
+        <v>91.458333330000002</v>
+      </c>
+      <c r="M120" s="15">
+        <v>82.14</v>
+      </c>
+      <c r="N120" s="15">
+        <v>82.89</v>
+      </c>
       <c r="AL120" t="str">
         <f>_xlfn.CONCAT(A120,AK119)</f>
         <v>CL2024-01-20 11-50-23</v>
@@ -37846,6 +38571,45 @@
       <c r="A121" t="s">
         <v>47</v>
       </c>
+      <c r="B121">
+        <v>10</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>306</v>
+      </c>
+      <c r="F121">
+        <v>499</v>
+      </c>
+      <c r="G121" s="15">
+        <v>97.916666669999998</v>
+      </c>
+      <c r="H121" s="15">
+        <v>97.916666669999998</v>
+      </c>
+      <c r="I121" s="15">
+        <v>90.1</v>
+      </c>
+      <c r="J121" s="15">
+        <v>91</v>
+      </c>
+      <c r="K121" s="15">
+        <v>96.458333330000002</v>
+      </c>
+      <c r="L121" s="15">
+        <v>94.375</v>
+      </c>
+      <c r="M121" s="15">
+        <v>89.8</v>
+      </c>
+      <c r="N121" s="15">
+        <v>87.51</v>
+      </c>
       <c r="AL121" t="str">
         <f>_xlfn.CONCAT(A121,AK119)</f>
         <v>ACL2024-01-20 11-50-23</v>
@@ -37855,6 +38619,45 @@
       <c r="A122" t="s">
         <v>48</v>
       </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>8</v>
+      </c>
+      <c r="D122">
+        <v>8</v>
+      </c>
+      <c r="E122">
+        <v>384</v>
+      </c>
+      <c r="F122">
+        <v>499</v>
+      </c>
+      <c r="G122" s="15">
+        <v>97.916666669999998</v>
+      </c>
+      <c r="H122" s="15">
+        <v>97.916666669999998</v>
+      </c>
+      <c r="I122" s="15">
+        <v>89.9</v>
+      </c>
+      <c r="J122" s="15">
+        <v>90.2</v>
+      </c>
+      <c r="K122" s="15">
+        <v>91.875</v>
+      </c>
+      <c r="L122" s="15">
+        <v>90.833333330000002</v>
+      </c>
+      <c r="M122" s="15">
+        <v>82.52</v>
+      </c>
+      <c r="N122" s="15">
+        <v>82.97</v>
+      </c>
       <c r="AL122" t="str">
         <f>_xlfn.CONCAT(A122,AK119)</f>
         <v>SPCL2024-01-20 11-50-23</v>
@@ -37864,19 +38667,45 @@
       <c r="A123" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
+      <c r="B123" s="1">
+        <v>10</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <v>8</v>
+      </c>
+      <c r="E123" s="1">
+        <v>23</v>
+      </c>
+      <c r="F123" s="1">
+        <v>499</v>
+      </c>
+      <c r="G123" s="1">
+        <v>100</v>
+      </c>
+      <c r="H123" s="1">
+        <v>91.666666669999998</v>
+      </c>
+      <c r="I123" s="1">
+        <v>92.1</v>
+      </c>
+      <c r="J123" s="1">
+        <v>81.8</v>
+      </c>
+      <c r="K123" s="1">
+        <v>98.333333330000002</v>
+      </c>
+      <c r="L123" s="1">
+        <v>91.875</v>
+      </c>
+      <c r="M123" s="1">
+        <v>90.95</v>
+      </c>
+      <c r="N123" s="1">
+        <v>83.88</v>
+      </c>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
@@ -50660,7 +51489,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:G4">
-    <cfRule type="colorScale" priority="239">
+    <cfRule type="colorScale" priority="272">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50672,6 +51501,2368 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G7">
+    <cfRule type="colorScale" priority="264">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G10">
+    <cfRule type="colorScale" priority="249">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G13">
+    <cfRule type="colorScale" priority="248">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G16">
+    <cfRule type="colorScale" priority="233">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G18">
+    <cfRule type="colorScale" priority="232">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G21">
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G23">
+    <cfRule type="colorScale" priority="202">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G26">
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G28">
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:G31">
+    <cfRule type="colorScale" priority="171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:G33">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:G36">
+    <cfRule type="colorScale" priority="155">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:G38">
+    <cfRule type="colorScale" priority="154">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G41">
+    <cfRule type="colorScale" priority="139">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G43">
+    <cfRule type="colorScale" priority="138">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:G53">
+    <cfRule type="colorScale" priority="136">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:G53">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:G63">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64:G103">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H4">
+    <cfRule type="colorScale" priority="271">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H7">
+    <cfRule type="colorScale" priority="263">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H10">
+    <cfRule type="colorScale" priority="250">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H13">
+    <cfRule type="colorScale" priority="241">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H16">
+    <cfRule type="colorScale" priority="219">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H18">
+    <cfRule type="colorScale" priority="218">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H21">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H23">
+    <cfRule type="colorScale" priority="204">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H26">
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H28">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H31">
+    <cfRule type="colorScale" priority="173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H33">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:H36">
+    <cfRule type="colorScale" priority="157">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34:H38">
+    <cfRule type="colorScale" priority="156">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H41">
+    <cfRule type="colorScale" priority="141">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H43">
+    <cfRule type="colorScale" priority="140">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44:H48">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49:H53">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54:H58">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59:H63">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64:H68">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69:H73">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74:H78">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79:H83">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84:H88">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89:H93">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H94:H98">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H99:H103">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I4">
+    <cfRule type="colorScale" priority="270">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I7">
+    <cfRule type="colorScale" priority="262">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I10">
+    <cfRule type="colorScale" priority="251">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I13">
+    <cfRule type="colorScale" priority="242">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I16">
+    <cfRule type="colorScale" priority="221">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I18">
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I21">
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I23">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:I26">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:I28">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:I31">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29:I33">
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I36">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:I38">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:I41">
+    <cfRule type="colorScale" priority="143">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:I43">
+    <cfRule type="colorScale" priority="142">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:I48">
+    <cfRule type="colorScale" priority="135">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:I53">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54:I58">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I59:I63">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I64:I68">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I69:I73">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74:I78">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79:I83">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84:I88">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I89:I93">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I94:I98">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I99:I103">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J4">
+    <cfRule type="colorScale" priority="269">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J7">
+    <cfRule type="colorScale" priority="261">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J10">
+    <cfRule type="colorScale" priority="252">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J13">
+    <cfRule type="colorScale" priority="243">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J16">
+    <cfRule type="colorScale" priority="223">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:J18">
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J21">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J23">
+    <cfRule type="colorScale" priority="208">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J26">
+    <cfRule type="colorScale" priority="193">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J28">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J31">
+    <cfRule type="colorScale" priority="177">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J33">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:J36">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34:J38">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:J41">
+    <cfRule type="colorScale" priority="145">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:J43">
+    <cfRule type="colorScale" priority="144">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J44:J48">
+    <cfRule type="colorScale" priority="134">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:J53">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54:J58">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59:J63">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J64:J68">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J69:J73">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J74:J78">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J79:J83">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J84:J88">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J89:J93">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J94:J98">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J99:J103">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K4">
+    <cfRule type="colorScale" priority="268">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K7">
+    <cfRule type="colorScale" priority="260">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8:K10">
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:K13">
+    <cfRule type="colorScale" priority="244">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:K16">
+    <cfRule type="colorScale" priority="225">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:K18">
+    <cfRule type="colorScale" priority="224">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:K21">
+    <cfRule type="colorScale" priority="211">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:K23">
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K26">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K28">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K31">
+    <cfRule type="colorScale" priority="179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K33">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K36">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K38">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:K41">
+    <cfRule type="colorScale" priority="147">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:K43">
+    <cfRule type="colorScale" priority="146">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:K48">
+    <cfRule type="colorScale" priority="133">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:K53">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54:K58">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K59:K63">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:K68">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K69:K73">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K74:K78">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K79:K83">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K84:K88">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K89:K93">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K94:K98">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K99:K103">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L4">
+    <cfRule type="colorScale" priority="267">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L7">
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L10">
+    <cfRule type="colorScale" priority="254">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L13">
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L16">
+    <cfRule type="colorScale" priority="227">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:L18">
+    <cfRule type="colorScale" priority="226">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:L21">
+    <cfRule type="colorScale" priority="213">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:L23">
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:L26">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:L28">
+    <cfRule type="colorScale" priority="196">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:L31">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:L33">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34:L36">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34:L38">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39:L41">
+    <cfRule type="colorScale" priority="149">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39:L43">
+    <cfRule type="colorScale" priority="148">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44:L48">
+    <cfRule type="colorScale" priority="130">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:L53">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54:L58">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L59:L63">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L64:L68">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L69:L73">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L74:L78">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L79:L83">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L84:L88">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L89:L93">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L94:L98">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L99:L103">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M4">
+    <cfRule type="colorScale" priority="266">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M7">
+    <cfRule type="colorScale" priority="258">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8:M10">
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11:M13">
+    <cfRule type="colorScale" priority="246">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M16">
+    <cfRule type="colorScale" priority="229">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M18">
+    <cfRule type="colorScale" priority="228">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:M21">
+    <cfRule type="colorScale" priority="215">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:M23">
+    <cfRule type="colorScale" priority="214">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:M26">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:M28">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:M31">
+    <cfRule type="colorScale" priority="183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:M33">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:M36">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:M38">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M39:M41">
+    <cfRule type="colorScale" priority="151">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M39:M43">
+    <cfRule type="colorScale" priority="150">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44:M48">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M49:M53">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M54:M58">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M59:M63">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M64:M68">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M69:M73">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M74:M78">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M79:M83">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M84:M88">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M89:M93">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M94:M98">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M99:M103">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N4">
+    <cfRule type="colorScale" priority="265">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N7">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N10">
+    <cfRule type="colorScale" priority="256">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:N13">
+    <cfRule type="colorScale" priority="247">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:N16">
     <cfRule type="colorScale" priority="231">
       <colorScale>
         <cfvo type="min"/>
@@ -50683,7 +53874,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G10">
+  <conditionalFormatting sqref="N14:N18">
+    <cfRule type="colorScale" priority="230">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:N21">
+    <cfRule type="colorScale" priority="217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:N23">
     <cfRule type="colorScale" priority="216">
       <colorScale>
         <cfvo type="min"/>
@@ -50695,8 +53910,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G13">
-    <cfRule type="colorScale" priority="215">
+  <conditionalFormatting sqref="N24:N26">
+    <cfRule type="colorScale" priority="201">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50707,7 +53922,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G16">
+  <conditionalFormatting sqref="N24:N28">
     <cfRule type="colorScale" priority="200">
       <colorScale>
         <cfvo type="min"/>
@@ -50719,8 +53934,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G18">
-    <cfRule type="colorScale" priority="199">
+  <conditionalFormatting sqref="N29:N31">
+    <cfRule type="colorScale" priority="185">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50731,8 +53946,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G21">
-    <cfRule type="colorScale" priority="170">
+  <conditionalFormatting sqref="N29:N33">
+    <cfRule type="colorScale" priority="184">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50743,7 +53958,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:G23">
+  <conditionalFormatting sqref="N34:N36">
     <cfRule type="colorScale" priority="169">
       <colorScale>
         <cfvo type="min"/>
@@ -50755,8 +53970,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G26">
-    <cfRule type="colorScale" priority="154">
+  <conditionalFormatting sqref="N34:N38">
+    <cfRule type="colorScale" priority="168">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50767,7 +53982,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24:G28">
+  <conditionalFormatting sqref="N39:N41">
     <cfRule type="colorScale" priority="153">
       <colorScale>
         <cfvo type="min"/>
@@ -50779,8 +53994,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G31">
-    <cfRule type="colorScale" priority="138">
+  <conditionalFormatting sqref="N39:N43">
+    <cfRule type="colorScale" priority="152">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50791,8 +54006,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G33">
-    <cfRule type="colorScale" priority="137">
+  <conditionalFormatting sqref="N44:N48">
+    <cfRule type="colorScale" priority="132">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50803,8 +54018,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:G36">
-    <cfRule type="colorScale" priority="122">
+  <conditionalFormatting sqref="N49:N53">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="111">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50815,8 +54040,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:G38">
-    <cfRule type="colorScale" priority="121">
+  <conditionalFormatting sqref="N54:N58">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50827,8 +54052,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G41">
-    <cfRule type="colorScale" priority="106">
+  <conditionalFormatting sqref="N59:N63">
+    <cfRule type="colorScale" priority="97">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50839,8 +54064,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39:G43">
-    <cfRule type="colorScale" priority="105">
+  <conditionalFormatting sqref="N64:N68">
+    <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50851,8 +54076,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:G53">
-    <cfRule type="colorScale" priority="103">
+  <conditionalFormatting sqref="N69:N73">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50863,8 +54088,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49:G53">
-    <cfRule type="colorScale" priority="89">
+  <conditionalFormatting sqref="N74:N78">
+    <cfRule type="colorScale" priority="75">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50875,8 +54100,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54:G63">
-    <cfRule type="colorScale" priority="72">
+  <conditionalFormatting sqref="N79:N83">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50887,8 +54112,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G64:G103">
-    <cfRule type="colorScale" priority="57">
+  <conditionalFormatting sqref="N84:N88">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50899,8 +54124,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4">
-    <cfRule type="colorScale" priority="238">
+  <conditionalFormatting sqref="N89:N93">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50911,8 +54136,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H7">
-    <cfRule type="colorScale" priority="230">
+  <conditionalFormatting sqref="N94:N98">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50923,8 +54148,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H10">
-    <cfRule type="colorScale" priority="217">
+  <conditionalFormatting sqref="N99:N103">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50935,8 +54160,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H13">
-    <cfRule type="colorScale" priority="208">
+  <conditionalFormatting sqref="G94:G98">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50947,8 +54172,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H16">
-    <cfRule type="colorScale" priority="186">
+  <conditionalFormatting sqref="G99:G103">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50959,8 +54184,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:H18">
-    <cfRule type="colorScale" priority="185">
+  <conditionalFormatting sqref="G104:G123">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50971,8 +54196,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H21">
-    <cfRule type="colorScale" priority="172">
+  <conditionalFormatting sqref="H104:H108">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -50983,219 +54208,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H23">
-    <cfRule type="colorScale" priority="171">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H26">
-    <cfRule type="colorScale" priority="156">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H28">
-    <cfRule type="colorScale" priority="155">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H31">
-    <cfRule type="colorScale" priority="140">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29:H33">
-    <cfRule type="colorScale" priority="139">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H36">
-    <cfRule type="colorScale" priority="124">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34:H38">
-    <cfRule type="colorScale" priority="123">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H41">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H43">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44:H48">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49:H53">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54:H58">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59:H63">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64:H68">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H73">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74:H78">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79:H83">
+  <conditionalFormatting sqref="I104:I108">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -51207,7 +54220,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84:H88">
+  <conditionalFormatting sqref="N104:N108">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M104:M108">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L104:L108">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K104:K108">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J104:J108">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N109:N113">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M109:M113">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -51219,7 +54304,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89:H93">
+  <conditionalFormatting sqref="L109:L113">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K109:K113">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J109:J113">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109:I113">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H109:H113">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N114:N118">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M114:M118">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -51231,7 +54388,79 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94:H98">
+  <conditionalFormatting sqref="L114:L118">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K114:K118">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J114:J118">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I114:I118">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H114:H118">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N119:N123">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M119:M123">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -51243,7 +54472,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H99:H103">
+  <conditionalFormatting sqref="L119:L123">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K119:K123">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J119:J123">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -51255,8 +54508,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
-    <cfRule type="colorScale" priority="237">
+  <conditionalFormatting sqref="I119:I123">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -51267,675 +54520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I7">
-    <cfRule type="colorScale" priority="229">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I10">
-    <cfRule type="colorScale" priority="218">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I13">
-    <cfRule type="colorScale" priority="209">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I16">
-    <cfRule type="colorScale" priority="188">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I18">
-    <cfRule type="colorScale" priority="187">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I21">
-    <cfRule type="colorScale" priority="174">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I23">
-    <cfRule type="colorScale" priority="173">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I26">
-    <cfRule type="colorScale" priority="158">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24:I28">
-    <cfRule type="colorScale" priority="157">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I31">
-    <cfRule type="colorScale" priority="142">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I29:I33">
-    <cfRule type="colorScale" priority="141">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:I36">
-    <cfRule type="colorScale" priority="126">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34:I38">
-    <cfRule type="colorScale" priority="125">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I41">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:I43">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I44:I48">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I49:I53">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54:I58">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I59:I63">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64:I68">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I69:I73">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74:I78">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79:I83">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84:I88">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I89:I93">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I94:I98">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I99:I103">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J4">
-    <cfRule type="colorScale" priority="236">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J7">
-    <cfRule type="colorScale" priority="228">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J10">
-    <cfRule type="colorScale" priority="219">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J13">
-    <cfRule type="colorScale" priority="210">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J16">
-    <cfRule type="colorScale" priority="190">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J18">
-    <cfRule type="colorScale" priority="189">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J21">
-    <cfRule type="colorScale" priority="176">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19:J23">
-    <cfRule type="colorScale" priority="175">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J26">
-    <cfRule type="colorScale" priority="160">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:J28">
-    <cfRule type="colorScale" priority="159">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J31">
-    <cfRule type="colorScale" priority="144">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:J33">
-    <cfRule type="colorScale" priority="143">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J36">
-    <cfRule type="colorScale" priority="128">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J34:J38">
-    <cfRule type="colorScale" priority="127">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:J41">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J39:J43">
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:J48">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J49:J53">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54:J58">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59:J63">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64:J68">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J69:J73">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74:J78">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J79:J83">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J84:J88">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J89:J93">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J94:J98">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J99:J103">
+  <conditionalFormatting sqref="H119:H123">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -51947,1380 +54532,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K4">
-    <cfRule type="colorScale" priority="235">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K7">
-    <cfRule type="colorScale" priority="227">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K10">
-    <cfRule type="colorScale" priority="220">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K13">
-    <cfRule type="colorScale" priority="211">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K16">
-    <cfRule type="colorScale" priority="192">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14:K18">
-    <cfRule type="colorScale" priority="191">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:K21">
-    <cfRule type="colorScale" priority="178">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19:K23">
-    <cfRule type="colorScale" priority="177">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:K26">
-    <cfRule type="colorScale" priority="162">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:K28">
-    <cfRule type="colorScale" priority="161">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K31">
-    <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K29:K33">
-    <cfRule type="colorScale" priority="145">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K36">
-    <cfRule type="colorScale" priority="130">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:K38">
-    <cfRule type="colorScale" priority="129">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39:K41">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K39:K43">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44:K48">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49:K53">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:K58">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K59:K63">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K64:K68">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K69:K73">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K74:K78">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K79:K83">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K84:K88">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K89:K93">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K94:K98">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K99:K103">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L4">
-    <cfRule type="colorScale" priority="234">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L7">
-    <cfRule type="colorScale" priority="226">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L10">
-    <cfRule type="colorScale" priority="221">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L13">
-    <cfRule type="colorScale" priority="212">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L16">
-    <cfRule type="colorScale" priority="194">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:L18">
-    <cfRule type="colorScale" priority="193">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19:L21">
-    <cfRule type="colorScale" priority="180">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19:L23">
-    <cfRule type="colorScale" priority="179">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:L26">
-    <cfRule type="colorScale" priority="164">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24:L28">
-    <cfRule type="colorScale" priority="163">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29:L31">
-    <cfRule type="colorScale" priority="148">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29:L33">
-    <cfRule type="colorScale" priority="147">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34:L36">
-    <cfRule type="colorScale" priority="132">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34:L38">
-    <cfRule type="colorScale" priority="131">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L39:L41">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L39:L43">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44:L48">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L49:L53">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54:L58">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L59:L63">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L64:L68">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L69:L73">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L74:L78">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L79:L83">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L84:L88">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L89:L93">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L94:L98">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L99:L103">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M4">
-    <cfRule type="colorScale" priority="233">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M7">
-    <cfRule type="colorScale" priority="225">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8:M10">
-    <cfRule type="colorScale" priority="222">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11:M13">
-    <cfRule type="colorScale" priority="213">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M16">
-    <cfRule type="colorScale" priority="196">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M18">
-    <cfRule type="colorScale" priority="195">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19:M21">
-    <cfRule type="colorScale" priority="182">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19:M23">
-    <cfRule type="colorScale" priority="181">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:M26">
-    <cfRule type="colorScale" priority="166">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24:M28">
-    <cfRule type="colorScale" priority="165">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29:M31">
-    <cfRule type="colorScale" priority="150">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M29:M33">
-    <cfRule type="colorScale" priority="149">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:M36">
-    <cfRule type="colorScale" priority="134">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:M38">
-    <cfRule type="colorScale" priority="133">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M39:M41">
-    <cfRule type="colorScale" priority="118">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M39:M43">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M44:M48">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M49:M53">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M54:M58">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M59:M63">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M64:M68">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M69:M73">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M74:M78">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M79:M83">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M84:M88">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M89:M93">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M94:M98">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M99:M103">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N4">
-    <cfRule type="colorScale" priority="232">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N7">
-    <cfRule type="colorScale" priority="224">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8:N10">
-    <cfRule type="colorScale" priority="223">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N13">
-    <cfRule type="colorScale" priority="214">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N16">
-    <cfRule type="colorScale" priority="198">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N18">
-    <cfRule type="colorScale" priority="197">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19:N21">
-    <cfRule type="colorScale" priority="184">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19:N23">
-    <cfRule type="colorScale" priority="183">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N24:N26">
-    <cfRule type="colorScale" priority="168">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N24:N28">
-    <cfRule type="colorScale" priority="167">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N29:N31">
-    <cfRule type="colorScale" priority="152">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N29:N33">
-    <cfRule type="colorScale" priority="151">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N34:N36">
-    <cfRule type="colorScale" priority="136">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N34:N38">
-    <cfRule type="colorScale" priority="135">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N39:N41">
-    <cfRule type="colorScale" priority="120">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N39:N43">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N44:N48">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N49:N53">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N54:N58">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N59:N63">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N64:N68">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N69:N73">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N74:N78">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N79:N83">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N84:N88">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N89:N93">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N94:N98">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N99:N103">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="G119:G123">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
